--- a/0899611_Spring_Speed.xlsx
+++ b/0899611_Spring_Speed.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16788\OneDrive\Desktop\Traffic Data Local Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yvonne/Documents/GitHub/VIPTrafficAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEA88D0-5531-4ECF-8F8B-CFFF65E2A3CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EB34654C-BF8B-42C6-AF65-7175AD1BD6AB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Time</t>
   </si>
@@ -65,11 +70,14 @@
   <si>
     <t>Jun</t>
   </si>
+  <si>
+    <t>Month</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -939,16 +947,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886599C3-2C4D-45DF-95FC-863AF7B52DD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -974,7 +983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +1012,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1029,7 +1038,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1055,7 +1064,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -1081,7 +1090,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -1107,7 +1116,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -1133,7 +1142,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -1159,7 +1168,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -1185,7 +1194,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -1211,7 +1220,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -1237,7 +1246,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1263,7 +1272,7 @@
         <v>47.9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -1289,7 +1298,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -1315,7 +1324,7 @@
         <v>46.9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1341,7 +1350,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1367,7 +1376,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -1393,7 +1402,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -1419,7 +1428,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -1445,7 +1454,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -1471,7 +1480,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -1497,7 +1506,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -1523,7 +1532,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -1549,7 +1558,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -1575,7 +1584,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -1601,7 +1610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1630,7 +1639,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>1</v>
       </c>
@@ -1656,7 +1665,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>2</v>
       </c>
@@ -1682,7 +1691,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>3</v>
       </c>
@@ -1708,7 +1717,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>4</v>
       </c>
@@ -1734,7 +1743,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>5</v>
       </c>
@@ -1760,7 +1769,7 @@
         <v>50.2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>6</v>
       </c>
@@ -1786,7 +1795,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>7</v>
       </c>
@@ -1812,7 +1821,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>8</v>
       </c>
@@ -1838,7 +1847,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>9</v>
       </c>
@@ -1864,7 +1873,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>10</v>
       </c>
@@ -1890,7 +1899,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>11</v>
       </c>
@@ -1916,7 +1925,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>12</v>
       </c>
@@ -1942,7 +1951,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>13</v>
       </c>
@@ -1968,7 +1977,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>14</v>
       </c>
@@ -1994,7 +2003,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>15</v>
       </c>
@@ -2020,7 +2029,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>16</v>
       </c>
@@ -2046,7 +2055,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>17</v>
       </c>
@@ -2072,7 +2081,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>18</v>
       </c>
@@ -2098,7 +2107,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>19</v>
       </c>
@@ -2124,7 +2133,7 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>20</v>
       </c>
@@ -2150,7 +2159,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>21</v>
       </c>
@@ -2176,7 +2185,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>22</v>
       </c>
@@ -2202,7 +2211,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>23</v>
       </c>
@@ -2228,7 +2237,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2257,7 +2266,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>1</v>
       </c>
@@ -2283,7 +2292,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>2</v>
       </c>
@@ -2309,7 +2318,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
         <v>3</v>
       </c>
@@ -2335,7 +2344,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <v>4</v>
       </c>
@@ -2361,7 +2370,7 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>5</v>
       </c>
@@ -2387,7 +2396,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <v>6</v>
       </c>
@@ -2413,7 +2422,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <v>7</v>
       </c>
@@ -2439,7 +2448,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <v>8</v>
       </c>
@@ -2465,7 +2474,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
         <v>9</v>
       </c>
@@ -2491,7 +2500,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <v>10</v>
       </c>
@@ -2517,7 +2526,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>11</v>
       </c>
@@ -2543,7 +2552,7 @@
         <v>46.9</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <v>12</v>
       </c>
@@ -2569,7 +2578,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
         <v>13</v>
       </c>
@@ -2595,7 +2604,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <v>14</v>
       </c>
@@ -2621,7 +2630,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <v>15</v>
       </c>
@@ -2647,7 +2656,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
         <v>16</v>
       </c>
@@ -2673,7 +2682,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
         <v>17</v>
       </c>
@@ -2699,7 +2708,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <v>18</v>
       </c>
@@ -2725,7 +2734,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
         <v>19</v>
       </c>
@@ -2751,7 +2760,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
         <v>20</v>
       </c>
@@ -2777,7 +2786,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
         <v>21</v>
       </c>
@@ -2803,7 +2812,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
         <v>22</v>
       </c>
@@ -2829,7 +2838,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
         <v>23</v>
       </c>
